--- a/Project1/s01_1.xlsx
+++ b/Project1/s01_1.xlsx
@@ -386,2382 +386,2382 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>26.61333712007259</v>
+        <v>62.34658477183983</v>
       </c>
       <c r="B2">
-        <v>26.0453968412603</v>
+        <v>61.6780933365885</v>
       </c>
       <c r="C2">
-        <v>27.18127739888488</v>
+        <v>63.01507620709116</v>
       </c>
       <c r="D2">
-        <v>25.74474741851915</v>
+        <v>61.32421534692378</v>
       </c>
       <c r="E2">
-        <v>27.48192682162603</v>
+        <v>63.36895419675588</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>26.75805345508444</v>
+        <v>62.35972136291247</v>
       </c>
       <c r="B3">
-        <v>26.03126512014189</v>
+        <v>61.38257797360225</v>
       </c>
       <c r="C3">
-        <v>27.48484179002699</v>
+        <v>63.33686475222269</v>
       </c>
       <c r="D3">
-        <v>25.64652661592374</v>
+        <v>60.86530950913304</v>
       </c>
       <c r="E3">
-        <v>27.86958029424513</v>
+        <v>63.85413321669189</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>26.55244145407927</v>
+        <v>62.38174902054874</v>
       </c>
       <c r="B4">
-        <v>25.6771090500665</v>
+        <v>61.20298076853985</v>
       </c>
       <c r="C4">
-        <v>27.42777385809205</v>
+        <v>63.56051727255763</v>
       </c>
       <c r="D4">
-        <v>25.21373606563332</v>
+        <v>60.57897854905791</v>
       </c>
       <c r="E4">
-        <v>27.89114684252523</v>
+        <v>64.18451949203957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>26.57258291453449</v>
+        <v>62.403776678185</v>
       </c>
       <c r="B5">
-        <v>25.55333296029923</v>
+        <v>61.05315460646563</v>
       </c>
       <c r="C5">
-        <v>27.59183286876975</v>
+        <v>63.75439874990436</v>
       </c>
       <c r="D5">
-        <v>25.01377462678816</v>
+        <v>60.33817847014887</v>
       </c>
       <c r="E5">
-        <v>28.13139120228082</v>
+        <v>64.46937488622112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>26.69431524036418</v>
+        <v>62.42580433582125</v>
       </c>
       <c r="B6">
-        <v>25.53303579652542</v>
+        <v>60.92285211792245</v>
       </c>
       <c r="C6">
-        <v>27.85559468420295</v>
+        <v>63.92875655372006</v>
       </c>
       <c r="D6">
-        <v>24.91829159285418</v>
+        <v>60.12723727323533</v>
       </c>
       <c r="E6">
-        <v>28.47033888787419</v>
+        <v>64.72437139840717</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>26.75278218304264</v>
+        <v>62.44783199345753</v>
       </c>
       <c r="B7">
-        <v>25.44983822502718</v>
+        <v>60.80662793607821</v>
       </c>
       <c r="C7">
-        <v>28.05572614105811</v>
+        <v>64.08903605083685</v>
       </c>
       <c r="D7">
-        <v>24.760101357516</v>
+        <v>59.93782698840919</v>
       </c>
       <c r="E7">
-        <v>28.74546300856929</v>
+        <v>64.95783699850585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>26.70857394064347</v>
+        <v>62.46985965109378</v>
       </c>
       <c r="B8">
-        <v>25.26340709555577</v>
+        <v>60.70117761448297</v>
       </c>
       <c r="C8">
-        <v>28.15374078573116</v>
+        <v>64.2385416877046</v>
       </c>
       <c r="D8">
-        <v>24.4983819794487</v>
+        <v>59.76489390093529</v>
       </c>
       <c r="E8">
-        <v>28.91876590183824</v>
+        <v>65.17482540125228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>26.67307995281832</v>
+        <v>62.49188730873004</v>
       </c>
       <c r="B9">
-        <v>25.08453961284891</v>
+        <v>60.60431703578623</v>
       </c>
       <c r="C9">
-        <v>28.26162029278772</v>
+        <v>64.37945758167386</v>
       </c>
       <c r="D9">
-        <v>24.24361715316424</v>
+        <v>59.60509769157861</v>
       </c>
       <c r="E9">
-        <v>29.10254275247239</v>
+        <v>65.37867692588146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>26.63029848991175</v>
+        <v>62.51391496636631</v>
       </c>
       <c r="B10">
-        <v>24.89683944216077</v>
+        <v>60.51451332488139</v>
       </c>
       <c r="C10">
-        <v>28.36375753766273</v>
+        <v>64.51331660785124</v>
       </c>
       <c r="D10">
-        <v>23.97920165260015</v>
+        <v>59.45609403016745</v>
       </c>
       <c r="E10">
-        <v>29.28139532722335</v>
+        <v>65.57173590256518</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>26.38658898568452</v>
+        <v>62.53594262400257</v>
       </c>
       <c r="B11">
-        <v>24.50639631111838</v>
+        <v>60.43064162114241</v>
       </c>
       <c r="C11">
-        <v>28.26678166025065</v>
+        <v>64.64124362686273</v>
       </c>
       <c r="D11">
-        <v>23.51108243158058</v>
+        <v>59.31616259082967</v>
       </c>
       <c r="E11">
-        <v>29.26209553978845</v>
+        <v>65.75572265717548</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>26.17584905906233</v>
+        <v>62.55797028163883</v>
       </c>
       <c r="B12">
-        <v>24.14692057602261</v>
+        <v>60.35184750597211</v>
       </c>
       <c r="C12">
-        <v>28.20477754210205</v>
+        <v>64.76409305730556</v>
       </c>
       <c r="D12">
-        <v>23.07287071556083</v>
+        <v>59.18399665308426</v>
       </c>
       <c r="E12">
-        <v>29.27882740256383</v>
+        <v>65.9319439101934</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>26.29253838554553</v>
+        <v>62.5799979392751</v>
       </c>
       <c r="B13">
-        <v>24.11274094876031</v>
+        <v>60.27746388089793</v>
       </c>
       <c r="C13">
-        <v>28.47233582233076</v>
+        <v>64.88253199765228</v>
       </c>
       <c r="D13">
-        <v>22.95882588847857</v>
+        <v>59.05857597785887</v>
       </c>
       <c r="E13">
-        <v>29.62625088261249</v>
+        <v>66.10141990069133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>26.72587550561812</v>
+        <v>62.60202559691136</v>
       </c>
       <c r="B14">
-        <v>24.33593285232048</v>
+        <v>60.20695806578446</v>
       </c>
       <c r="C14">
-        <v>29.11581815891577</v>
+        <v>64.99709312803826</v>
       </c>
       <c r="D14">
-        <v>23.07077363416989</v>
+        <v>58.93908590118781</v>
       </c>
       <c r="E14">
-        <v>30.38097737706635</v>
+        <v>66.26496529263491</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>26.87059184062997</v>
+        <v>62.62405325454762</v>
       </c>
       <c r="B15">
-        <v>24.32875300895511</v>
+        <v>60.13989668393261</v>
       </c>
       <c r="C15">
-        <v>29.41243067230483</v>
+        <v>65.10820982516262</v>
       </c>
       <c r="D15">
-        <v>22.9831848111118</v>
+        <v>58.82486363060541</v>
       </c>
       <c r="E15">
-        <v>30.75799887014813</v>
+        <v>66.42324287848983</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>26.6649798396248</v>
+        <v>62.64608091218389</v>
       </c>
       <c r="B16">
-        <v>23.96856067523762</v>
+        <v>60.07592152879906</v>
       </c>
       <c r="C16">
-        <v>29.36139900401198</v>
+        <v>65.21624029556872</v>
       </c>
       <c r="D16">
-        <v>22.54116259222701</v>
+        <v>58.71536133647858</v>
       </c>
       <c r="E16">
-        <v>30.78879708702259</v>
+        <v>66.5768004878892</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>26.68512130008001</v>
+        <v>62.66810856982015</v>
       </c>
       <c r="B17">
-        <v>23.83146074117734</v>
+        <v>60.01473248553196</v>
       </c>
       <c r="C17">
-        <v>29.53878185898269</v>
+        <v>65.32148465410835</v>
       </c>
       <c r="D17">
-        <v>22.32082409197284</v>
+        <v>58.61012003274963</v>
       </c>
       <c r="E17">
-        <v>31.04941850818719</v>
+        <v>66.72609710689066</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>26.80685362590971</v>
+        <v>62.69013622745641</v>
       </c>
       <c r="B18">
-        <v>23.79331597389847</v>
+        <v>59.95607513937809</v>
       </c>
       <c r="C18">
-        <v>29.82039127792096</v>
+        <v>65.42419731553471</v>
       </c>
       <c r="D18">
-        <v>22.19804550394586</v>
+        <v>58.50875062563031</v>
       </c>
       <c r="E18">
-        <v>31.41566174787356</v>
+        <v>66.8715218292825</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>26.86532056858817</v>
+        <v>62.71216388509266</v>
       </c>
       <c r="B19">
-        <v>23.68929698526496</v>
+        <v>59.89973158866038</v>
       </c>
       <c r="C19">
-        <v>30.04134415191139</v>
+        <v>65.52459618152496</v>
       </c>
       <c r="D19">
-        <v>22.00801165904144</v>
+        <v>58.41091986326347</v>
       </c>
       <c r="E19">
-        <v>31.72262947813491</v>
+        <v>67.01340790692186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>26.82111232618899</v>
+        <v>62.73419154272894</v>
       </c>
       <c r="B20">
-        <v>23.48002176195153</v>
+        <v>59.84551350412949</v>
       </c>
       <c r="C20">
-        <v>30.16220289042645</v>
+        <v>65.62286958132839</v>
       </c>
       <c r="D20">
-        <v>21.71135525433114</v>
+        <v>58.31633972091733</v>
       </c>
       <c r="E20">
-        <v>31.93086939804685</v>
+        <v>67.15204336454055</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>26.78561833836384</v>
+        <v>62.75621920036519</v>
       </c>
       <c r="B21">
-        <v>23.2769080400183</v>
+        <v>59.79325679774207</v>
       </c>
       <c r="C21">
-        <v>30.29432863670939</v>
+        <v>65.71918160298833</v>
       </c>
       <c r="D21">
-        <v>21.41950900508886</v>
+        <v>58.22475924758541</v>
       </c>
       <c r="E21">
-        <v>32.15172767163883</v>
+        <v>67.28767915314498</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>26.74283687545728</v>
+        <v>62.77824685800145</v>
       </c>
       <c r="B22">
-        <v>23.06398258268403</v>
+        <v>59.74281746695483</v>
       </c>
       <c r="C22">
-        <v>30.42169116823053</v>
+        <v>65.81367624904807</v>
       </c>
       <c r="D22">
-        <v>21.11651475774987</v>
+        <v>58.13595821038272</v>
       </c>
       <c r="E22">
-        <v>32.36915899316469</v>
+        <v>67.42053550562018</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>26.49912737123005</v>
+        <v>62.80027451563772</v>
       </c>
       <c r="B23">
-        <v>22.64763328250948</v>
+        <v>59.69406831245335</v>
       </c>
       <c r="C23">
-        <v>30.35062145995061</v>
+        <v>65.9064807188221</v>
       </c>
       <c r="D23">
-        <v>20.60877547005365</v>
+        <v>58.04974207474517</v>
       </c>
       <c r="E23">
-        <v>32.38947927240643</v>
+        <v>67.55080695653028</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>26.28838744460786</v>
+        <v>62.82230217327398</v>
       </c>
       <c r="B24">
-        <v>22.26178601294264</v>
+        <v>59.64689631490367</v>
       </c>
       <c r="C24">
-        <v>30.31498887627308</v>
+        <v>65.99770803164429</v>
       </c>
       <c r="D24">
-        <v>20.13023197248878</v>
+        <v>57.96593799251742</v>
       </c>
       <c r="E24">
-        <v>32.44654291672694</v>
+        <v>67.67866635403055</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>26.40507677109106</v>
+        <v>62.84432983091024</v>
       </c>
       <c r="B25">
-        <v>22.20092837487981</v>
+        <v>59.60120051587455</v>
       </c>
       <c r="C25">
-        <v>30.60922516730231</v>
+        <v>66.08745914594594</v>
       </c>
       <c r="D25">
-        <v>19.97538664876323</v>
+        <v>57.88439156110302</v>
       </c>
       <c r="E25">
-        <v>32.83476689341889</v>
+        <v>67.80426810071745</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>26.83841389116365</v>
+        <v>62.86635748854651</v>
       </c>
       <c r="B26">
-        <v>22.40982093849064</v>
+        <v>59.55689028932618</v>
       </c>
       <c r="C26">
-        <v>31.26700684383665</v>
+        <v>66.17582468776685</v>
       </c>
       <c r="D26">
-        <v>20.0654654411819</v>
+        <v>57.80496417993464</v>
       </c>
       <c r="E26">
-        <v>33.61136234114539</v>
+        <v>67.92775079715838</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26.9831302261755</v>
+        <v>62.88838514618277</v>
       </c>
       <c r="B27">
-        <v>22.37395265752008</v>
+        <v>59.5138839191291</v>
       </c>
       <c r="C27">
-        <v>31.59230779483092</v>
+        <v>66.26288637323644</v>
       </c>
       <c r="D27">
-        <v>19.93400143901229</v>
+        <v>57.72753087497691</v>
       </c>
       <c r="E27">
-        <v>34.0322590133387</v>
+        <v>68.04923941738863</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>26.77751822517033</v>
+        <v>62.91041280381903</v>
       </c>
       <c r="B28">
-        <v>21.98528434361327</v>
+        <v>59.47210741888619</v>
       </c>
       <c r="C28">
-        <v>31.56975210672739</v>
+        <v>66.34871818875186</v>
       </c>
       <c r="D28">
-        <v>19.44842896659414</v>
+        <v>57.65197849379987</v>
       </c>
       <c r="E28">
-        <v>34.10660748374652</v>
+        <v>68.16884711383818</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>26.79765968562554</v>
+        <v>62.9324404614553</v>
       </c>
       <c r="B29">
-        <v>21.81993365894439</v>
+        <v>59.43149354544392</v>
       </c>
       <c r="C29">
-        <v>31.7753857123067</v>
+        <v>66.43338737746667</v>
       </c>
       <c r="D29">
-        <v>19.18488467172526</v>
+        <v>57.57820419687476</v>
       </c>
       <c r="E29">
-        <v>34.41043469952583</v>
+        <v>68.28667672603585</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>26.91939201145524</v>
+        <v>62.95446811909156</v>
       </c>
       <c r="B30">
-        <v>21.75377220056561</v>
+        <v>59.39198096860231</v>
       </c>
       <c r="C30">
-        <v>32.08501182234487</v>
+        <v>66.51695526958081</v>
       </c>
       <c r="D30">
-        <v>19.01925825221173</v>
+        <v>57.50611418775485</v>
       </c>
       <c r="E30">
-        <v>34.81952577069875</v>
+        <v>68.40282205042827</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>26.9778589541337</v>
+        <v>62.97649577672782</v>
       </c>
       <c r="B31">
-        <v>21.6219763765182</v>
+        <v>59.35351356781864</v>
       </c>
       <c r="C31">
-        <v>32.33374153174921</v>
+        <v>66.59947798563699</v>
       </c>
       <c r="D31">
-        <v>18.78674340343711</v>
+        <v>57.43562263747665</v>
       </c>
       <c r="E31">
-        <v>35.16897450483029</v>
+        <v>68.51736891597898</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>26.93365071173452</v>
+        <v>62.99852343436409</v>
       </c>
       <c r="B32">
-        <v>21.38516762460692</v>
+        <v>59.31603983294183</v>
       </c>
       <c r="C32">
-        <v>32.48213379886213</v>
+        <v>66.68100703578635</v>
       </c>
       <c r="D32">
-        <v>18.44797810052093</v>
+        <v>57.36665076806224</v>
       </c>
       <c r="E32">
-        <v>35.41932332294812</v>
+        <v>68.63039610066593</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>26.89815672390937</v>
+        <v>63.02055109200035</v>
       </c>
       <c r="B33">
-        <v>21.15476531401439</v>
+        <v>59.27951235076613</v>
       </c>
       <c r="C33">
-        <v>32.64154813380436</v>
+        <v>66.76158983323455</v>
       </c>
       <c r="D33">
-        <v>18.11439755638244</v>
+        <v>57.29912606727088</v>
       </c>
       <c r="E33">
-        <v>35.68191589143631</v>
+        <v>68.74197611672982</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>26.85537526100281</v>
+        <v>63.0425787496366</v>
       </c>
       <c r="B34">
-        <v>20.914796429749</v>
+        <v>59.24388736284475</v>
       </c>
       <c r="C34">
-        <v>32.79595409225662</v>
+        <v>66.84127013642846</v>
       </c>
       <c r="D34">
-        <v>17.77004395665484</v>
+        <v>57.23298161233324</v>
       </c>
       <c r="E34">
-        <v>35.94070656535078</v>
+        <v>68.85217588693997</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>26.61166575677557</v>
+        <v>63.06460640727288</v>
       </c>
       <c r="B35">
-        <v>20.47164799090634</v>
+        <v>59.20912438283571</v>
       </c>
       <c r="C35">
-        <v>32.7516835226448</v>
+        <v>66.92008843171004</v>
       </c>
       <c r="D35">
-        <v>17.22131892322792</v>
+        <v>57.16815548473258</v>
       </c>
       <c r="E35">
-        <v>36.00201259032323</v>
+        <v>68.96105732981317</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>26.40092583015339</v>
+        <v>63.08663406490913</v>
       </c>
       <c r="B36">
-        <v>20.05924414943219</v>
+        <v>59.1751858638678</v>
       </c>
       <c r="C36">
-        <v>32.74260751087459</v>
+        <v>66.99808226595047</v>
       </c>
       <c r="D36">
-        <v>16.70216065377984</v>
+        <v>57.10459026148467</v>
       </c>
       <c r="E36">
-        <v>36.09969100652695</v>
+        <v>69.06867786833361</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>26.51761515663659</v>
+        <v>63.10866172254539</v>
       </c>
       <c r="B37">
-        <v>19.97207013109833</v>
+        <v>59.14203690815962</v>
       </c>
       <c r="C37">
-        <v>33.06316018217485</v>
+        <v>67.07528653693116</v>
       </c>
       <c r="D37">
-        <v>16.50706789957905</v>
+        <v>57.04223257103856</v>
       </c>
       <c r="E37">
-        <v>36.52816241369412</v>
+        <v>69.17509087405222</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>26.95095227670918</v>
+        <v>63.13068938018166</v>
       </c>
       <c r="B38">
-        <v>20.16136435187632</v>
+        <v>59.10964501251145</v>
       </c>
       <c r="C38">
-        <v>33.74054020154204</v>
+        <v>67.15173374785188</v>
       </c>
       <c r="D38">
-        <v>16.5671736131597</v>
+        <v>56.98103270403993</v>
       </c>
       <c r="E38">
-        <v>37.33473094025865</v>
+        <v>69.28034605632341</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>27.09566861172102</v>
+        <v>63.15271703781792</v>
       </c>
       <c r="B39">
-        <v>20.09902227301954</v>
+        <v>59.0779798443975</v>
       </c>
       <c r="C39">
-        <v>34.09231495042251</v>
+        <v>67.22745423123835</v>
       </c>
       <c r="D39">
-        <v>16.39522143104792</v>
+        <v>56.92094427089377</v>
       </c>
       <c r="E39">
-        <v>37.79611579239413</v>
+        <v>69.38448980474207</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>26.89005661071586</v>
+        <v>63.17474469545418</v>
       </c>
       <c r="B40">
-        <v>19.68416917894039</v>
+        <v>59.04701304427878</v>
       </c>
       <c r="C40">
-        <v>34.09594404249133</v>
+        <v>67.30247634662958</v>
       </c>
       <c r="D40">
-        <v>15.86960279313732</v>
+        <v>56.86192389942803</v>
       </c>
       <c r="E40">
-        <v>37.91051042829439</v>
+        <v>69.48756549148034</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>26.91019807117107</v>
+        <v>63.19677235309044</v>
       </c>
       <c r="B41">
-        <v>19.49291265341255</v>
+        <v>59.01671805047825</v>
       </c>
       <c r="C41">
-        <v>34.3274834889296</v>
+        <v>67.37682665570262</v>
       </c>
       <c r="D41">
-        <v>15.56643893364232</v>
+        <v>56.80393096706317</v>
       </c>
       <c r="E41">
-        <v>38.25395720869982</v>
+        <v>69.58961373911771</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>27.03193039700077</v>
+        <v>63.21880001072671</v>
       </c>
       <c r="B42">
-        <v>19.40111487283311</v>
+        <v>58.98706994354875</v>
       </c>
       <c r="C42">
-        <v>34.66274592116844</v>
+        <v>67.45053007790467</v>
       </c>
       <c r="D42">
-        <v>15.36160514272036</v>
+        <v>56.74692736279351</v>
       </c>
       <c r="E42">
-        <v>38.70225565128119</v>
+        <v>69.69067265865991</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>27.09039733967923</v>
+        <v>63.24082766836297</v>
       </c>
       <c r="B43">
-        <v>19.24394341619462</v>
+        <v>58.95804530754548</v>
       </c>
       <c r="C43">
-        <v>34.93685126316385</v>
+        <v>67.52361002918046</v>
       </c>
       <c r="D43">
-        <v>15.09028161289023</v>
+        <v>56.69087727502191</v>
       </c>
       <c r="E43">
-        <v>39.09051306646824</v>
+        <v>69.79077806170403</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>27.04618909728005</v>
+        <v>63.26285532599923</v>
       </c>
       <c r="B44">
-        <v>18.98201142657163</v>
+        <v>58.929622106012</v>
       </c>
       <c r="C44">
-        <v>35.11036676798847</v>
+        <v>67.59608854598645</v>
       </c>
       <c r="D44">
-        <v>14.71309363357627</v>
+        <v>56.63574700189651</v>
       </c>
       <c r="E44">
-        <v>39.37928456098383</v>
+        <v>69.88996365010195</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>27.0106951094549</v>
+        <v>63.2848829836355</v>
       </c>
       <c r="B45">
-        <v>18.72673046287255</v>
+        <v>58.90177957081573</v>
       </c>
       <c r="C45">
-        <v>35.29465975603725</v>
+        <v>67.66798639645526</v>
       </c>
       <c r="D45">
-        <v>14.3414644729141</v>
+        <v>56.58150478129943</v>
       </c>
       <c r="E45">
-        <v>39.6799257459957</v>
+        <v>69.98826118597157</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>26.96791364654834</v>
+        <v>63.30691064127176</v>
       </c>
       <c r="B46">
-        <v>18.4621201406853</v>
+        <v>58.87449810224251</v>
       </c>
       <c r="C46">
-        <v>35.47370715241137</v>
+        <v>67.739323180301</v>
       </c>
       <c r="D46">
-        <v>13.95942504598095</v>
+        <v>56.52812063805458</v>
       </c>
       <c r="E46">
-        <v>39.97640224711572</v>
+        <v>70.08570064448894</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>26.7242041423211</v>
+        <v>63.32893829890801</v>
       </c>
       <c r="B47">
-        <v>17.99456051224025</v>
+        <v>58.8477591789871</v>
       </c>
       <c r="C47">
-        <v>35.45384777240196</v>
+        <v>67.81011741882892</v>
       </c>
       <c r="D47">
-        <v>13.37336631976568</v>
+        <v>56.47556624626999</v>
       </c>
       <c r="E47">
-        <v>40.07504196487653</v>
+        <v>70.18231035154604</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>26.51346421569892</v>
+        <v>63.35096595654429</v>
       </c>
       <c r="B48">
-        <v>17.55796913138855</v>
+        <v>58.82154527686719</v>
       </c>
       <c r="C48">
-        <v>35.46895930000929</v>
+        <v>67.88038663622139</v>
       </c>
       <c r="D48">
-        <v>12.81721640103152</v>
+        <v>56.42381480502155</v>
       </c>
       <c r="E48">
-        <v>40.20971203036632</v>
+        <v>70.27811710806702</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>26.63015354218211</v>
+        <v>63.37299361418054</v>
       </c>
       <c r="B49">
-        <v>17.44682496465303</v>
+        <v>58.79583979524918</v>
       </c>
       <c r="C49">
-        <v>35.8134821197112</v>
+        <v>67.95014743311191</v>
       </c>
       <c r="D49">
-        <v>12.58546446835176</v>
+        <v>56.37284092583113</v>
       </c>
       <c r="E49">
-        <v>40.67484261601247</v>
+        <v>70.37314630252996</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>27.06349066225471</v>
+        <v>63.3950212718168</v>
       </c>
       <c r="B50">
-        <v>17.6165784208256</v>
+        <v>58.77062699031037</v>
       </c>
       <c r="C50">
-        <v>36.51040290368381</v>
+        <v>68.01941555332323</v>
       </c>
       <c r="D50">
-        <v>12.61568516139427</v>
+        <v>56.32262053059969</v>
       </c>
       <c r="E50">
-        <v>41.51129616311515</v>
+        <v>70.46742201303391</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>27.20820699726655</v>
+        <v>63.41704892945307</v>
       </c>
       <c r="B51">
-        <v>17.53036167404952</v>
+        <v>58.74589191437632</v>
       </c>
       <c r="C51">
-        <v>36.88605232048359</v>
+        <v>68.08820594452983</v>
       </c>
       <c r="D51">
-        <v>12.40721982560004</v>
+        <v>56.27313075883192</v>
       </c>
       <c r="E51">
-        <v>42.00919416893307</v>
+        <v>70.56096710007424</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>27.00259499626139</v>
+        <v>63.43907658708933</v>
       </c>
       <c r="B52">
-        <v>17.09185740074403</v>
+        <v>58.72162036067109</v>
       </c>
       <c r="C52">
-        <v>36.91333259177874</v>
+        <v>68.15653281350757</v>
       </c>
       <c r="D52">
-        <v>11.84542983046761</v>
+        <v>56.22434988313901</v>
       </c>
       <c r="E52">
-        <v>42.15976016205516</v>
+        <v>70.65380329103967</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>27.0227364567166</v>
+        <v>63.46110424472559</v>
       </c>
       <c r="B53">
-        <v>16.87716612448206</v>
+        <v>58.69779881290163</v>
       </c>
       <c r="C53">
-        <v>37.16830678895114</v>
+        <v>68.22440967654956</v>
       </c>
       <c r="D53">
-        <v>11.50642561256608</v>
+        <v>56.17625723213454</v>
       </c>
       <c r="E53">
-        <v>42.53904730086713</v>
+        <v>70.74595125731663</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>27.1444687825463</v>
+        <v>63.48313190236186</v>
       </c>
       <c r="B54">
-        <v>16.76214337610406</v>
+        <v>58.67441439916882</v>
       </c>
       <c r="C54">
-        <v>37.52679418898853</v>
+        <v>68.2918494055549</v>
       </c>
       <c r="D54">
-        <v>11.26607229855108</v>
+        <v>56.12883311994762</v>
       </c>
       <c r="E54">
-        <v>43.02286526654152</v>
+        <v>70.83743068477609</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>27.20293572522476</v>
+        <v>63.50515955999812</v>
       </c>
       <c r="B55">
-        <v>16.58195046811191</v>
+        <v>58.65145484976013</v>
       </c>
       <c r="C55">
-        <v>37.82392098233761</v>
+        <v>68.35886427023611</v>
       </c>
       <c r="D55">
-        <v>10.95954049717095</v>
+        <v>56.08205878167224</v>
       </c>
       <c r="E55">
-        <v>43.44633095327858</v>
+        <v>70.92826033832401</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>27.15872748282558</v>
+        <v>63.52718721763438</v>
       </c>
       <c r="B56">
-        <v>16.29719462444101</v>
+        <v>58.62890845843152</v>
       </c>
       <c r="C56">
-        <v>38.02026034121015</v>
+        <v>68.42546597683723</v>
       </c>
       <c r="D56">
-        <v>10.54744644530788</v>
+        <v>56.0359163141531</v>
       </c>
       <c r="E56">
-        <v>43.77000852034328</v>
+        <v>71.01845812111566</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>27.12323349500043</v>
+        <v>63.54921487527065</v>
       </c>
       <c r="B57">
-        <v>16.01928180387144</v>
+        <v>58.60676404683247</v>
       </c>
       <c r="C57">
-        <v>38.22718518612943</v>
+        <v>68.49166570370883</v>
       </c>
       <c r="D57">
-        <v>10.14120484644034</v>
+        <v>55.99038862157835</v>
       </c>
       <c r="E57">
-        <v>44.10526214356052</v>
+        <v>71.10804112896295</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>27.08045203209386</v>
+        <v>63.57124253290691</v>
       </c>
       <c r="B58">
-        <v>15.73222631548614</v>
+        <v>58.58501093176756</v>
       </c>
       <c r="C58">
-        <v>38.42867774870159</v>
+        <v>68.55747413404626</v>
       </c>
       <c r="D58">
-        <v>9.724838500046481</v>
+        <v>55.94545936541055</v>
       </c>
       <c r="E58">
-        <v>44.43606556414125</v>
+        <v>71.19702570040326</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>26.83674252786663</v>
+        <v>63.59327019054317</v>
       </c>
       <c r="B59">
-        <v>15.24240317583748</v>
+        <v>58.56363889502337</v>
       </c>
       <c r="C59">
-        <v>38.43108187989579</v>
+        <v>68.62290148606296</v>
       </c>
       <c r="D59">
-        <v>9.104730671710279</v>
+        <v>55.90111291824084</v>
       </c>
       <c r="E59">
-        <v>44.56875438402299</v>
+        <v>71.28542746284549</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>26.62600260124445</v>
+        <v>63.61529784817944</v>
       </c>
       <c r="B60">
-        <v>14.78372515340852</v>
+        <v>58.54263815551884</v>
       </c>
       <c r="C60">
-        <v>38.46828004908038</v>
+        <v>68.68795754084005</v>
       </c>
       <c r="D60">
-        <v>8.514802149606009</v>
+        <v>55.85733432119657</v>
       </c>
       <c r="E60">
-        <v>44.73720305288289</v>
+        <v>71.3732613751623</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>26.74269192772765</v>
+        <v>63.6373255058157</v>
       </c>
       <c r="B61">
-        <v>14.65066666115609</v>
+        <v>58.52199934356416</v>
       </c>
       <c r="C61">
-        <v>38.8347171942992</v>
+        <v>68.75265166806723</v>
       </c>
       <c r="D61">
-        <v>8.249535148228731</v>
+        <v>55.81410924457383</v>
       </c>
       <c r="E61">
-        <v>45.23584870722656</v>
+        <v>71.46054176705756</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>27.17602904780024</v>
+        <v>63.65935316345195</v>
       </c>
       <c r="B62">
-        <v>14.80172119925197</v>
+        <v>58.50171347703662</v>
       </c>
       <c r="C62">
-        <v>39.5503368963485</v>
+        <v>68.81699284986728</v>
       </c>
       <c r="D62">
-        <v>8.251158313894631</v>
+        <v>55.7714239514013</v>
       </c>
       <c r="E62">
-        <v>46.10089978170583</v>
+        <v>71.5472823755026</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>27.32074538281208</v>
+        <v>63.68138082108823</v>
       </c>
       <c r="B63">
-        <v>14.69372961270072</v>
+        <v>58.48177193930127</v>
       </c>
       <c r="C63">
-        <v>39.94776115292344</v>
+        <v>68.88098970287518</v>
       </c>
       <c r="D63">
-        <v>8.009391234436027</v>
+        <v>55.72926526367303</v>
       </c>
       <c r="E63">
-        <v>46.63209953118813</v>
+        <v>71.63349637850342</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>27.11513338180692</v>
+        <v>63.70340847872448</v>
       </c>
       <c r="B64">
-        <v>14.23362172112106</v>
+        <v>58.462166458723</v>
       </c>
       <c r="C64">
-        <v>39.99664504249277</v>
+        <v>68.94465049872596</v>
       </c>
       <c r="D64">
-        <v>7.414561356327731</v>
+        <v>55.68762053101482</v>
       </c>
       <c r="E64">
-        <v>46.8157054072861</v>
+        <v>71.71919642643415</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>27.13527484226213</v>
+        <v>63.72543613636074</v>
       </c>
       <c r="B65">
-        <v>13.99749349777058</v>
+        <v>58.44288908963218</v>
       </c>
       <c r="C65">
-        <v>40.27305618675368</v>
+        <v>69.00798318308931</v>
       </c>
       <c r="D65">
-        <v>7.042772157032108</v>
+        <v>55.64647760157358</v>
       </c>
       <c r="E65">
-        <v>47.22777752749215</v>
+        <v>71.8043946711479</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>27.25700716809183</v>
+        <v>63.747463793997</v>
       </c>
       <c r="B66">
-        <v>13.86119614597426</v>
+        <v>58.42393219461938</v>
       </c>
       <c r="C66">
-        <v>40.6528181902094</v>
+        <v>69.07099539337463</v>
       </c>
       <c r="D66">
-        <v>6.769882144840963</v>
+        <v>55.60582479493955</v>
       </c>
       <c r="E66">
-        <v>47.74413219134269</v>
+        <v>71.88910279305445</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>27.31547411077029</v>
+        <v>63.76949145163327</v>
       </c>
       <c r="B67">
-        <v>13.65988685770689</v>
+        <v>58.4052884280478</v>
       </c>
       <c r="C67">
-        <v>40.97106136383369</v>
+        <v>69.13369447521875</v>
       </c>
       <c r="D67">
-        <v>6.431055626700285</v>
+        <v>55.56565087693071</v>
       </c>
       <c r="E67">
-        <v>48.19989259484029</v>
+        <v>71.97333202633583</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>27.27126586837111</v>
+        <v>63.79151910926953</v>
       </c>
       <c r="B68">
-        <v>13.35416892897006</v>
+        <v>58.38695072068244</v>
       </c>
       <c r="C68">
-        <v>41.18836280777215</v>
+        <v>69.19608749785662</v>
       </c>
       <c r="D68">
-        <v>5.986902832235938</v>
+        <v>55.52594503608509</v>
       </c>
       <c r="E68">
-        <v>48.55562890450628</v>
+        <v>72.05709318245397</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>27.23577188054596</v>
+        <v>63.81354676690579</v>
       </c>
       <c r="B69">
-        <v>13.05544457007622</v>
+        <v>58.36891226534497</v>
       </c>
       <c r="C69">
-        <v>41.4160991910157</v>
+        <v>69.2581812684666</v>
       </c>
       <c r="D69">
-        <v>5.548832732139793</v>
+        <v>55.48669686172186</v>
       </c>
       <c r="E69">
-        <v>48.92271102895213</v>
+        <v>72.14039667208972</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>27.19299041763939</v>
+        <v>63.83557442454206</v>
       </c>
       <c r="B70">
-        <v>12.74772450911683</v>
+        <v>58.35116650351195</v>
       </c>
       <c r="C70">
-        <v>41.63825632616196</v>
+        <v>69.31998234557216</v>
       </c>
       <c r="D70">
-        <v>5.100862649236181</v>
+        <v>55.44789632344492</v>
       </c>
       <c r="E70">
-        <v>49.28511818604261</v>
+        <v>72.2232525256392</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>26.94928091341216</v>
+        <v>63.85760208217832</v>
       </c>
       <c r="B71">
-        <v>12.23738033816053</v>
+        <v>58.33370711278135</v>
       </c>
       <c r="C71">
-        <v>41.66118148866379</v>
+        <v>69.38149705157529</v>
       </c>
       <c r="D71">
-        <v>4.449370611813162</v>
+        <v>55.40953375197483</v>
       </c>
       <c r="E71">
-        <v>49.44919121501116</v>
+        <v>72.30567041238182</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>26.73854098678998</v>
+        <v>63.87962973981458</v>
       </c>
       <c r="B72">
-        <v>11.75832154766487</v>
+        <v>58.31652799514006</v>
       </c>
       <c r="C72">
-        <v>41.71876042591508</v>
+        <v>69.44273148448909</v>
       </c>
       <c r="D72">
-        <v>3.82827239473761</v>
+        <v>55.37159982120533</v>
       </c>
       <c r="E72">
-        <v>49.64880957884234</v>
+        <v>72.38765965842381</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>26.85523031327317</v>
+        <v>63.90165739745085</v>
       </c>
       <c r="B73">
-        <v>11.60501940979797</v>
+        <v>58.29962326597039</v>
       </c>
       <c r="C73">
-        <v>42.10544121674838</v>
+        <v>69.50369152893131</v>
       </c>
       <c r="D73">
-        <v>3.532045409082755</v>
+        <v>55.33408553139027</v>
       </c>
       <c r="E73">
-        <v>50.17841521746359</v>
+        <v>72.46922926351144</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>27.28856743334577</v>
+        <v>63.92368505508711</v>
       </c>
       <c r="B74">
-        <v>11.73830522479523</v>
+        <v>58.28298724373934</v>
       </c>
       <c r="C74">
-        <v>42.8388296418963</v>
+        <v>69.56438286643487</v>
       </c>
       <c r="D74">
-        <v>3.506493657826955</v>
+        <v>55.29698219337478</v>
       </c>
       <c r="E74">
-        <v>51.07064120886457</v>
+        <v>72.55038791679944</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>27.43328376835761</v>
+        <v>63.94571271272336</v>
       </c>
       <c r="B75">
-        <v>11.6102091452022</v>
+        <v>58.26661444032</v>
       </c>
       <c r="C75">
-        <v>43.25635839151302</v>
+        <v>69.62481098512673</v>
       </c>
       <c r="D75">
-        <v>3.233979409585814</v>
+        <v>55.26028141379304</v>
       </c>
       <c r="E75">
-        <v>51.63258812712941</v>
+        <v>72.63114401165369</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>27.22767176735244</v>
+        <v>63.96774037035964</v>
       </c>
       <c r="B76">
-        <v>11.13013153051901</v>
+        <v>58.25049955189779</v>
       </c>
       <c r="C76">
-        <v>43.32521200418589</v>
+        <v>69.68498118882148</v>
       </c>
       <c r="D76">
-        <v>2.608608475529035</v>
+        <v>55.22397508116064</v>
       </c>
       <c r="E76">
-        <v>51.84673505917586</v>
+        <v>72.71150565955864</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>27.24781322780766</v>
+        <v>63.98976802799589</v>
       </c>
       <c r="B77">
-        <v>10.87416531715413</v>
+        <v>58.23463745041925</v>
       </c>
       <c r="C77">
-        <v>43.62146113846119</v>
+        <v>69.74489860557254</v>
       </c>
       <c r="D77">
-        <v>2.206479688659059</v>
+        <v>55.1880553527966</v>
       </c>
       <c r="E77">
-        <v>52.28914676695626</v>
+        <v>72.79148070319519</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>27.36954555363736</v>
+        <v>64.01179568563215</v>
       </c>
       <c r="B78">
-        <v>10.71815879713963</v>
+        <v>58.21902317554434</v>
       </c>
       <c r="C78">
-        <v>44.02093231013509</v>
+        <v>69.80456819571997</v>
       </c>
       <c r="D78">
-        <v>1.9034471048294</v>
+        <v>55.15251464251546</v>
       </c>
       <c r="E78">
-        <v>52.83564400244532</v>
+        <v>72.87107672874885</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>27.42801249631582</v>
+        <v>64.03382334326842</v>
       </c>
       <c r="B79">
-        <v>10.49726636918006</v>
+        <v>58.20365192706628</v>
       </c>
       <c r="C79">
-        <v>44.35875862345158</v>
+        <v>69.86399475947057</v>
       </c>
       <c r="D79">
-        <v>1.534670759047881</v>
+        <v>55.11734560903448</v>
       </c>
       <c r="E79">
-        <v>53.32135423358376</v>
+        <v>72.95030107750236</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>27.38380425391664</v>
+        <v>64.05585100090468</v>
       </c>
       <c r="B80">
-        <v>10.17208864706894</v>
+        <v>58.18851905776631</v>
       </c>
       <c r="C80">
-        <v>44.59551986076433</v>
+        <v>69.92318294404306</v>
       </c>
       <c r="D80">
-        <v>1.060756778857069</v>
+        <v>55.08254114504589</v>
       </c>
       <c r="E80">
-        <v>53.7068517289762</v>
+        <v>73.02916085676347</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>27.34831026609149</v>
+        <v>64.07787865854094</v>
       </c>
       <c r="B81">
-        <v>9.854025263534027</v>
+        <v>58.17362006667326</v>
       </c>
       <c r="C81">
-        <v>44.84259526864895</v>
+        <v>69.98213725040863</v>
       </c>
       <c r="D81">
-        <v>0.5931101928732723</v>
+        <v>55.04809436690832</v>
       </c>
       <c r="E81">
-        <v>54.10351033930971</v>
+        <v>73.10766295017356</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>27.30552880318492</v>
+        <v>64.09990631617721</v>
       </c>
       <c r="B82">
-        <v>9.527084467742583</v>
+        <v>58.15895059270016</v>
       </c>
       <c r="C82">
-        <v>45.08397313862726</v>
+        <v>70.04086203965427</v>
       </c>
       <c r="D82">
-        <v>0.1157445327333981</v>
+        <v>55.01399860491478</v>
       </c>
       <c r="E82">
-        <v>54.49531307363644</v>
+        <v>73.18581402743965</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>27.06181929895769</v>
+        <v>64.12193397381347</v>
       </c>
       <c r="B83">
-        <v>8.997635465970888</v>
+        <v>58.14450640863242</v>
       </c>
       <c r="C83">
-        <v>45.12600313194449</v>
+        <v>70.09936153899451</v>
       </c>
       <c r="D83">
-        <v>-0.5649658220290448</v>
+        <v>54.9802473940985</v>
       </c>
       <c r="E83">
-        <v>54.68860441994443</v>
+        <v>73.26362055352844</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>26.85107937233551</v>
+        <v>64.14396163144973</v>
       </c>
       <c r="B84">
-        <v>8.499585450884325</v>
+        <v>58.13028341544435</v>
       </c>
       <c r="C84">
-        <v>45.20257329378669</v>
+        <v>70.1576398474551</v>
       </c>
       <c r="D84">
-        <v>-1.215108610717024</v>
+        <v>54.9468344655406</v>
       </c>
       <c r="E84">
-        <v>54.91726735538803</v>
+        <v>73.34108879735885</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>26.9677686988187</v>
+        <v>64.165989289086</v>
       </c>
       <c r="B85">
-        <v>8.327403480090624</v>
+        <v>58.11627763692199</v>
       </c>
       <c r="C85">
-        <v>45.60813391754678</v>
+        <v>70.21570094125002</v>
       </c>
       <c r="D85">
-        <v>-1.540209809135167</v>
+        <v>54.91375373814662</v>
       </c>
       <c r="E85">
-        <v>55.47574720677257</v>
+        <v>73.41822484002537</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>27.40110581889129</v>
+        <v>64.18801694672226</v>
       </c>
       <c r="B86">
-        <v>8.443791925967105</v>
+        <v>58.1024852145726</v>
       </c>
       <c r="C86">
-        <v>46.35841971181548</v>
+        <v>70.27354867887192</v>
       </c>
       <c r="D86">
-        <v>-1.591603856401992</v>
+        <v>54.88099931086117</v>
       </c>
       <c r="E86">
-        <v>56.39381549418458</v>
+        <v>73.49503458258334</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>27.54582215390314</v>
+        <v>64.21004460435852</v>
       </c>
       <c r="B87">
-        <v>8.296944291037409</v>
+        <v>58.08890240280235</v>
       </c>
       <c r="C87">
-        <v>46.79470001676887</v>
+        <v>70.33118680591468</v>
       </c>
       <c r="D87">
-        <v>-1.89279613376198</v>
+        <v>54.84856545529281</v>
       </c>
       <c r="E87">
-        <v>56.98444044156827</v>
+        <v>73.57152375342423</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>27.34021015289797</v>
+        <v>64.23207226199477</v>
       </c>
       <c r="B88">
-        <v>7.798224179385542</v>
+        <v>58.07552556434492</v>
       </c>
       <c r="C88">
-        <v>46.88219612641041</v>
+        <v>70.38861895964463</v>
       </c>
       <c r="D88">
-        <v>-2.546678306556906</v>
+        <v>54.81644660872271</v>
       </c>
       <c r="E88">
-        <v>57.22709861235285</v>
+        <v>73.64769791526683</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>27.36035161335319</v>
+        <v>64.25409991963105</v>
       </c>
       <c r="B89">
-        <v>7.523722409505297</v>
+        <v>58.06235116592546</v>
       </c>
       <c r="C89">
-        <v>47.19698081720108</v>
+        <v>70.44584867333663</v>
       </c>
       <c r="D89">
-        <v>-2.977154780855361</v>
+        <v>54.78463736747331</v>
       </c>
       <c r="E89">
-        <v>57.69785800756173</v>
+        <v>73.72356247178878</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>27.48208393918289</v>
+        <v>64.2761275772673</v>
       </c>
       <c r="B90">
-        <v>7.349285230774306</v>
+        <v>58.04937577414506</v>
       </c>
       <c r="C90">
-        <v>47.61488264759147</v>
+        <v>70.50287938038954</v>
       </c>
       <c r="D90">
-        <v>-3.308374624774167</v>
+        <v>54.75313248061413</v>
       </c>
       <c r="E90">
-        <v>58.27254250313994</v>
+        <v>73.79912267392048</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>27.54055088186135</v>
+        <v>64.29815523490356</v>
       </c>
       <c r="B91">
-        <v>7.110065070608819</v>
+        <v>58.0365960515725</v>
       </c>
       <c r="C91">
-        <v>47.97103669311387</v>
+        <v>70.55971441823462</v>
       </c>
       <c r="D91">
-        <v>-3.705180818130827</v>
+        <v>54.72192684398455</v>
       </c>
       <c r="E91">
-        <v>58.78628258185352</v>
+        <v>73.87438362582257</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>27.49634263946217</v>
+        <v>64.32018289253983</v>
       </c>
       <c r="B92">
-        <v>6.766660639242733</v>
+        <v>58.02400875303027</v>
       </c>
       <c r="C92">
-        <v>48.2260246396816</v>
+        <v>70.61635703204939</v>
       </c>
       <c r="D92">
-        <v>-4.20697014462597</v>
+        <v>54.69101549451387</v>
       </c>
       <c r="E92">
-        <v>59.1996554235503</v>
+        <v>73.9493502905658</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>27.46084865163702</v>
+        <v>64.34221055017609</v>
       </c>
       <c r="B93">
-        <v>6.430469730172412</v>
+        <v>58.0116107220634</v>
       </c>
       <c r="C93">
-        <v>48.49122757310163</v>
+        <v>70.67281037828877</v>
       </c>
       <c r="D93">
-        <v>-4.702340388504982</v>
+        <v>54.6603936048208</v>
       </c>
       <c r="E93">
-        <v>59.62403769177902</v>
+        <v>74.02402749553139</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>27.41806718873045</v>
+        <v>64.36423820781235</v>
       </c>
       <c r="B94">
-        <v>6.085498814480076</v>
+        <v>57.99939888758031</v>
       </c>
       <c r="C94">
-        <v>48.75063556298083</v>
+        <v>70.72907752804439</v>
       </c>
       <c r="D94">
-        <v>-5.207280737477344</v>
+        <v>54.63005647807606</v>
       </c>
       <c r="E94">
-        <v>60.04341511493824</v>
+        <v>74.09841993754864</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>27.17435768450322</v>
+        <v>64.38626586544862</v>
       </c>
       <c r="B95">
-        <v>5.538115378523489</v>
+        <v>57.9873702606553</v>
       </c>
       <c r="C95">
-        <v>48.81059999048294</v>
+        <v>70.78516147024193</v>
       </c>
       <c r="D95">
-        <v>-5.915419442397944</v>
+        <v>54.59999954311228</v>
       </c>
       <c r="E95">
-        <v>60.26413481140438</v>
+        <v>74.17253218778497</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>26.96361775788103</v>
+        <v>64.40829352308488</v>
       </c>
       <c r="B96">
-        <v>5.02222495042291</v>
+        <v>57.97552193148343</v>
       </c>
       <c r="C96">
-        <v>48.90501056533915</v>
+        <v>70.84106511468633</v>
       </c>
       <c r="D96">
-        <v>-6.592846788271835</v>
+        <v>54.57021834976681</v>
       </c>
       <c r="E96">
-        <v>60.5200823040339</v>
+        <v>74.24636869640295</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>27.08030708436423</v>
+        <v>64.43032118072114</v>
       </c>
       <c r="B97">
-        <v>4.832294975994103</v>
+        <v>57.96385106647905</v>
       </c>
       <c r="C97">
-        <v>49.32831919273436</v>
+        <v>70.89679129496322</v>
       </c>
       <c r="D97">
-        <v>-6.945091215926727</v>
+        <v>54.54070856444439</v>
       </c>
       <c r="E97">
-        <v>61.1057053846552</v>
+        <v>74.31993379699787</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>27.51364420443682</v>
+        <v>64.45234883835741</v>
       </c>
       <c r="B98">
-        <v>4.932570278764352</v>
+        <v>57.95235490550967</v>
       </c>
       <c r="C98">
-        <v>50.09471813010929</v>
+        <v>70.95234277120515</v>
       </c>
       <c r="D98">
-        <v>-7.021128189014902</v>
+        <v>54.51146596588663</v>
       </c>
       <c r="E98">
-        <v>62.04841659788855</v>
+        <v>74.39323171082819</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>27.65836053944867</v>
+        <v>64.47437649599367</v>
       </c>
       <c r="B99">
-        <v>4.768090299172499</v>
+        <v>57.94103075925748</v>
       </c>
       <c r="C99">
-        <v>50.54863077972484</v>
+        <v>71.00772223272985</v>
       </c>
       <c r="D99">
-        <v>-7.349286810476809</v>
+        <v>54.48248644113689</v>
       </c>
       <c r="E99">
-        <v>62.66600788937414</v>
+        <v>74.46626655085043</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>27.4527485384435</v>
+        <v>64.49640415362992</v>
       </c>
       <c r="B100">
-        <v>4.251828210419049</v>
+        <v>57.92987600670173</v>
       </c>
       <c r="C100">
-        <v>50.65366886646795</v>
+        <v>71.06293230055813</v>
       </c>
       <c r="D100">
-        <v>-8.029997122116164</v>
+        <v>54.45376598168982</v>
       </c>
       <c r="E100">
-        <v>62.93549419900317</v>
+        <v>74.53904232557004</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>27.47288999889872</v>
+        <v>64.5184318112662</v>
       </c>
       <c r="B101">
-        <v>3.959873294786185</v>
+        <v>57.91888809271476</v>
       </c>
       <c r="C101">
-        <v>50.98590670301125</v>
+        <v>71.11797552981764</v>
       </c>
       <c r="D101">
-        <v>-8.487165879434482</v>
+        <v>54.4253006798149</v>
       </c>
       <c r="E101">
-        <v>63.43294587723192</v>
+        <v>74.6115629427175</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>27.59462232472842</v>
+        <v>64.54045946890245</v>
       </c>
       <c r="B102">
-        <v>3.768070313111732</v>
+        <v>57.90806452576592</v>
       </c>
       <c r="C102">
-        <v>51.4211743363451</v>
+        <v>71.172854412039</v>
       </c>
       <c r="D102">
-        <v>-8.844944427073767</v>
+        <v>54.39708672504482</v>
       </c>
       <c r="E102">
-        <v>64.0341890765306</v>
+        <v>74.68383221276009</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>27.65308926740688</v>
+        <v>64.56248712653871</v>
       </c>
       <c r="B103">
-        <v>3.511570249782267</v>
+        <v>57.89740287572728</v>
       </c>
       <c r="C103">
-        <v>51.79460828503149</v>
+        <v>71.22757137735015</v>
       </c>
       <c r="D103">
-        <v>-9.268177951774938</v>
+        <v>54.36912040081963</v>
       </c>
       <c r="E103">
-        <v>64.5743564865887</v>
+        <v>74.7558538522578</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>27.60888102500769</v>
+        <v>64.58451478417498</v>
       </c>
       <c r="B104">
-        <v>3.150970415476159</v>
+        <v>57.88690077177579</v>
       </c>
       <c r="C104">
-        <v>52.06679163453923</v>
+        <v>71.28212879657417</v>
       </c>
       <c r="D104">
-        <v>-9.796265377674121</v>
+        <v>54.34139808127836</v>
       </c>
       <c r="E104">
-        <v>65.01402742768951</v>
+        <v>74.82763148707161</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>27.57338703718255</v>
+        <v>64.60654244181124</v>
       </c>
       <c r="B105">
-        <v>2.797667245689503</v>
+        <v>57.87655590038656</v>
       </c>
       <c r="C105">
-        <v>52.34910682867559</v>
+        <v>71.33652898323592</v>
       </c>
       <c r="D105">
-        <v>-10.31780656589889</v>
+        <v>54.31391622819002</v>
       </c>
       <c r="E105">
-        <v>65.46458064026398</v>
+        <v>74.89916865543246</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>27.53060557427598</v>
+        <v>64.6285700994475</v>
       </c>
       <c r="B106">
-        <v>2.435665893249471</v>
+        <v>57.86636600341277</v>
       </c>
       <c r="C106">
-        <v>52.62554525530249</v>
+        <v>71.39077419548222</v>
       </c>
       <c r="D106">
-        <v>-10.84879272025582</v>
+        <v>54.28667138801712</v>
       </c>
       <c r="E106">
-        <v>65.91000386880779</v>
+        <v>74.97046881087789</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>27.28689607004875</v>
+        <v>64.65059775708377</v>
       </c>
       <c r="B107">
-        <v>1.871332564295756</v>
+        <v>57.8563288762475</v>
       </c>
       <c r="C107">
-        <v>52.70245957580174</v>
+        <v>71.44486663792006</v>
       </c>
       <c r="D107">
-        <v>-11.58285404952441</v>
+        <v>54.25966018910425</v>
       </c>
       <c r="E107">
-        <v>66.15664618962191</v>
+        <v>75.04153532506329</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>27.07615614342656</v>
+        <v>64.67262541472003</v>
       </c>
       <c r="B108">
-        <v>1.338571543154018</v>
+        <v>57.84644236606307</v>
       </c>
       <c r="C108">
-        <v>52.81374074369911</v>
+        <v>71.49880846337699</v>
       </c>
       <c r="D108">
-        <v>-12.28608274092937</v>
+        <v>54.23287933898567</v>
       </c>
       <c r="E108">
-        <v>66.43839502778249</v>
+        <v>75.11237149045439</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>27.19284546990976</v>
+        <v>64.69465307235629</v>
       </c>
       <c r="B109">
-        <v>1.131849066743961</v>
+        <v>57.83670437012447</v>
       </c>
       <c r="C109">
-        <v>53.25384187307556</v>
+        <v>71.55260177458811</v>
       </c>
       <c r="D109">
-        <v>-12.6640090841454</v>
+        <v>54.20632562180566</v>
       </c>
       <c r="E109">
-        <v>67.04970002396492</v>
+        <v>75.18298052290692</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>27.62618258998235</v>
+        <v>64.71668072999256</v>
       </c>
       <c r="B110">
-        <v>1.216710375913792</v>
+        <v>57.8271128341725</v>
       </c>
       <c r="C110">
-        <v>54.03565480405091</v>
+        <v>71.60624862581263</v>
       </c>
       <c r="D110">
-        <v>-12.76361972615725</v>
+        <v>54.17999589584588</v>
       </c>
       <c r="E110">
-        <v>68.01598490612194</v>
+        <v>75.25336556413924</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>27.7708989249942</v>
+        <v>64.73870838762882</v>
       </c>
       <c r="B111">
-        <v>1.035541667693646</v>
+        <v>57.81766575087343</v>
       </c>
       <c r="C111">
-        <v>54.50625618229475</v>
+        <v>71.65975102438421</v>
       </c>
       <c r="D111">
-        <v>-13.11730155553261</v>
+        <v>54.15388709115435</v>
       </c>
       <c r="E111">
-        <v>68.65909940552101</v>
+        <v>75.32352968410328</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>27.56528692398903</v>
+        <v>64.76073604526508</v>
       </c>
       <c r="B112">
-        <v>0.5026672138221038</v>
+        <v>57.80836115833203</v>
       </c>
       <c r="C112">
-        <v>54.62790663415596</v>
+        <v>71.71311093219813</v>
       </c>
       <c r="D112">
-        <v>-13.82341828717479</v>
+        <v>54.1279962072712</v>
       </c>
       <c r="E112">
-        <v>68.95399213515285</v>
+        <v>75.39347588325896</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>27.58542838444425</v>
+        <v>64.78276370290133</v>
       </c>
       <c r="B113">
-        <v>0.1941751448000382</v>
+        <v>57.79919713866435</v>
       </c>
       <c r="C113">
-        <v>54.97668162408846</v>
+        <v>71.76633026713831</v>
       </c>
       <c r="D113">
-        <v>-14.30587843808277</v>
+        <v>54.10232031104606</v>
       </c>
       <c r="E113">
-        <v>69.47673520697126</v>
+        <v>75.46320709475661</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>27.70716071027394</v>
+        <v>64.80479136053761</v>
       </c>
       <c r="B114">
-        <v>-0.01409089867937396</v>
+        <v>57.79017181662789</v>
       </c>
       <c r="C114">
-        <v>55.42841231922726</v>
+        <v>71.81941090444732</v>
       </c>
       <c r="D114">
-        <v>-14.68883506601198</v>
+        <v>54.076856534543</v>
       </c>
       <c r="E114">
-        <v>70.10315648655987</v>
+        <v>75.5327261865322</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>27.76562765295241</v>
+        <v>64.82681901817386</v>
       </c>
       <c r="B115">
-        <v>-0.2869810220111475</v>
+        <v>57.78128335830586</v>
       </c>
       <c r="C115">
-        <v>55.81823632791596</v>
+        <v>71.87235467804186</v>
       </c>
       <c r="D115">
-        <v>-15.13713502438049</v>
+        <v>54.05160207302837</v>
       </c>
       <c r="E115">
-        <v>70.66839033028531</v>
+        <v>75.60203596331937</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>27.72141941055322</v>
+        <v>64.84884667581012</v>
       </c>
       <c r="B116">
-        <v>-0.6638989751429776</v>
+        <v>57.77252996984345</v>
       </c>
       <c r="C116">
-        <v>56.10673779624943</v>
+        <v>71.9251633817768</v>
       </c>
       <c r="D116">
-        <v>-15.69017885941197</v>
+        <v>54.02655418303793</v>
       </c>
       <c r="E116">
-        <v>71.13301768051841</v>
+        <v>75.67113916858231</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>27.68592542272808</v>
+        <v>64.87087433344639</v>
       </c>
       <c r="B117">
-        <v>-1.033449355194875</v>
+        <v>57.7639098962331</v>
       </c>
       <c r="C117">
-        <v>56.40530020065103</v>
+        <v>71.97783877065969</v>
       </c>
       <c r="D117">
-        <v>-16.23656801148404</v>
+        <v>54.00171018051926</v>
       </c>
       <c r="E117">
-        <v>71.60841885694019</v>
+        <v>75.74003848637352</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>27.64314395982151</v>
+        <v>64.89290199108265</v>
       </c>
       <c r="B118">
-        <v>-1.41162801503306</v>
+        <v>57.75542142014687</v>
       </c>
       <c r="C118">
-        <v>56.69791593467608</v>
+        <v>72.03038256201845</v>
       </c>
       <c r="D118">
-        <v>-16.79229522247863</v>
+        <v>53.97706743904592</v>
       </c>
       <c r="E118">
-        <v>72.07858314212164</v>
+        <v>75.80873654311938</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>27.39943445559428</v>
+        <v>64.91492964871891</v>
       </c>
       <c r="B119">
-        <v>-1.99206972832134</v>
+        <v>57.74706286081351</v>
       </c>
       <c r="C119">
-        <v>56.79093863950989</v>
+        <v>72.08279643662431</v>
       </c>
       <c r="D119">
-        <v>-17.55099219965535</v>
+        <v>53.95262338810012</v>
       </c>
       <c r="E119">
-        <v>72.3498611108439</v>
+        <v>75.8772359093377</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>27.18869452897209</v>
+        <v>64.93695730635518</v>
       </c>
       <c r="B120">
-        <v>-2.540871165628822</v>
+        <v>57.73883257293824</v>
       </c>
       <c r="C120">
-        <v>56.91826022357301</v>
+        <v>72.13508203977213</v>
       </c>
       <c r="D120">
-        <v>-18.27875259062445</v>
+        <v>53.92837551142063</v>
       </c>
       <c r="E120">
-        <v>72.65614164856864</v>
+        <v>75.94553910128974</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>27.30538385545529</v>
+        <v>64.95898496399144</v>
       </c>
       <c r="B121">
-        <v>-2.763567020955016</v>
+        <v>57.73072894566308</v>
       </c>
       <c r="C121">
-        <v>57.3743347318656</v>
+        <v>72.18724098231979</v>
       </c>
       <c r="D121">
-        <v>-18.6811081087787</v>
+        <v>53.90432134541275</v>
       </c>
       <c r="E121">
-        <v>73.29187581968928</v>
+        <v>76.01364858257014</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>27.73872097552788</v>
+        <v>64.9810126216277</v>
       </c>
       <c r="B122">
-        <v>-2.69349613179568</v>
+        <v>57.72275040156624</v>
       </c>
       <c r="C122">
-        <v>58.17093808285144</v>
+        <v>72.23927484168917</v>
       </c>
       <c r="D122">
-        <v>-18.80333874620562</v>
+        <v>53.88045847761803</v>
       </c>
       <c r="E122">
-        <v>74.28078069726138</v>
+        <v>76.08156676563736</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>27.88343731053973</v>
+        <v>65.00304027926397</v>
       </c>
       <c r="B123">
-        <v>-2.890544980559383</v>
+        <v>57.71489539569841</v>
       </c>
       <c r="C123">
-        <v>58.65741960163884</v>
+        <v>72.29118516282954</v>
       </c>
       <c r="D123">
-        <v>-19.18130715473363</v>
+        <v>53.85678454524042</v>
       </c>
       <c r="E123">
-        <v>74.94818177581308</v>
+        <v>76.14929601328753</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>27.67782530953456</v>
+        <v>65.02506793690023</v>
       </c>
       <c r="B124">
-        <v>-3.439233988923988</v>
+        <v>57.70716241465451</v>
       </c>
       <c r="C124">
-        <v>58.79488460799311</v>
+        <v>72.34297345914595</v>
       </c>
       <c r="D124">
-        <v>-19.91161016032006</v>
+        <v>53.83329723372658</v>
       </c>
       <c r="E124">
-        <v>75.26726077938918</v>
+        <v>76.21683864007387</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>27.69796676998978</v>
+        <v>65.04709559453649</v>
       </c>
       <c r="B125">
-        <v>-3.763475914155869</v>
+        <v>57.69954997567941</v>
       </c>
       <c r="C125">
-        <v>59.15940945413542</v>
+        <v>72.39464121339356</v>
       </c>
       <c r="D125">
-        <v>-20.41815763768674</v>
+        <v>53.80999427539823</v>
       </c>
       <c r="E125">
-        <v>75.81409117766629</v>
+        <v>76.28419691367473</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>27.81969909581947</v>
+        <v>65.06912325217276</v>
       </c>
       <c r="B126">
-        <v>-3.987427981498612</v>
+        <v>57.6920566258058</v>
       </c>
       <c r="C126">
-        <v>59.62682617313756</v>
+        <v>72.44618987853973</v>
       </c>
       <c r="D126">
-        <v>-20.82510396892509</v>
+        <v>53.7868734481336</v>
       </c>
       <c r="E126">
-        <v>76.46450216056402</v>
+        <v>76.35137305621191</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>27.87816603849793</v>
+        <v>65.09115090980902</v>
       </c>
       <c r="B127">
-        <v>-4.275941141242225</v>
+        <v>57.68468094102303</v>
       </c>
       <c r="C127">
-        <v>60.03227321823809</v>
+        <v>72.497620878595</v>
       </c>
       <c r="D127">
-        <v>-21.29729729960853</v>
+        <v>53.76393257409639</v>
       </c>
       <c r="E127">
-        <v>77.05362937660441</v>
+        <v>76.41836924552165</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>27.83395779609875</v>
+        <v>65.11317856744527</v>
       </c>
       <c r="B128">
-        <v>-4.668419967939428</v>
+        <v>57.67742152547571</v>
       </c>
       <c r="C128">
-        <v>60.33633556013693</v>
+        <v>72.54893560941484</v>
       </c>
       <c r="D128">
-        <v>-21.87413943708533</v>
+        <v>53.74116951850994</v>
       </c>
       <c r="E128">
-        <v>77.54205502928284</v>
+        <v>76.4851876163806</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>27.79846380827361</v>
+        <v>65.13520622508155</v>
       </c>
       <c r="B129">
-        <v>-5.053469863742276</v>
+        <v>57.67027701069033</v>
       </c>
       <c r="C129">
-        <v>60.65039748028949</v>
+        <v>72.60013543947277</v>
       </c>
       <c r="D129">
-        <v>-22.44423305292338</v>
+        <v>53.71858218847467</v>
       </c>
       <c r="E129">
-        <v>78.0411606694706</v>
+        <v>76.55183026168842</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>27.75568234536704</v>
+        <v>65.1572338827178</v>
       </c>
       <c r="B130">
-        <v>-5.447087467660193</v>
+        <v>57.66324605482918</v>
       </c>
       <c r="C130">
-        <v>60.95845215839427</v>
+        <v>72.65122171060644</v>
       </c>
       <c r="D130">
-        <v>-23.02357209130686</v>
+        <v>53.69616853182687</v>
       </c>
       <c r="E130">
-        <v>78.53493678204094</v>
+        <v>76.61829923360874</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>27.51197284113981</v>
+        <v>65.17926154035406</v>
       </c>
       <c r="B131">
-        <v>-6.042908321264289</v>
+        <v>57.65632734197014</v>
       </c>
       <c r="C131">
-        <v>61.0668540035439</v>
+        <v>72.70219573873798</v>
       </c>
       <c r="D131">
-        <v>-23.80578943390827</v>
+        <v>53.67392653603735</v>
       </c>
       <c r="E131">
-        <v>78.82973511618788</v>
+        <v>76.68459654467077</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>27.30123291451762</v>
+        <v>65.20128919799033</v>
       </c>
       <c r="B132">
-        <v>-6.607029845418758</v>
+        <v>57.64951958141133</v>
       </c>
       <c r="C132">
-        <v>61.209495674454</v>
+        <v>72.75305881456933</v>
       </c>
       <c r="D132">
-        <v>-24.55697987581516</v>
+        <v>53.65185422714789</v>
       </c>
       <c r="E132">
-        <v>79.1594457048504</v>
+        <v>76.75072416883278</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>27.41792224100082</v>
+        <v>65.22331685562659</v>
       </c>
       <c r="B133">
-        <v>-6.844987467401765</v>
+        <v>57.64282150699949</v>
       </c>
       <c r="C133">
-        <v>61.6808319494034</v>
+        <v>72.8038122042537</v>
       </c>
       <c r="D133">
-        <v>-24.98267625187325</v>
+        <v>53.62994966874421</v>
       </c>
       <c r="E133">
-        <v>79.81852073387489</v>
+        <v>76.81668404250897</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>27.85125936107341</v>
+        <v>65.24534451326285</v>
       </c>
       <c r="B134">
-        <v>-6.789148619015904</v>
+        <v>57.6362318764813</v>
       </c>
       <c r="C134">
-        <v>62.49166734116272</v>
+        <v>72.8544571500444</v>
       </c>
       <c r="D134">
-        <v>-25.12667291736526</v>
+        <v>53.60821096096382</v>
       </c>
       <c r="E134">
-        <v>80.82919163951209</v>
+        <v>76.88247806556188</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>27.99597569608526</v>
+        <v>65.26737217089912</v>
       </c>
       <c r="B135">
-        <v>-7.001375144664625</v>
+        <v>57.62974947087655</v>
       </c>
       <c r="C135">
-        <v>62.99332653683514</v>
+        <v>72.90499487092168</v>
       </c>
       <c r="D135">
-        <v>-25.52785357958904</v>
+        <v>53.58663623953732</v>
       </c>
       <c r="E135">
-        <v>81.51980497175956</v>
+        <v>76.94810810226093</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>27.79036369508009</v>
+        <v>65.28939982853538</v>
       </c>
       <c r="B136">
-        <v>-7.565184731621578</v>
+        <v>57.62337309387215</v>
       </c>
       <c r="C136">
-        <v>63.14591212178176</v>
+        <v>72.95542656319861</v>
       </c>
       <c r="D136">
-        <v>-26.28128151456823</v>
+        <v>53.56522367486175</v>
       </c>
       <c r="E136">
-        <v>81.86200890472841</v>
+        <v>77.01357598220902</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>27.8105051555353</v>
+        <v>65.31142748617164</v>
       </c>
       <c r="B137">
-        <v>-7.904490837489242</v>
+        <v>57.61710157123647</v>
       </c>
       <c r="C137">
-        <v>63.52550114855985</v>
+        <v>73.0057534011068</v>
       </c>
       <c r="D137">
-        <v>-26.81086766809633</v>
+        <v>53.54397147110482</v>
       </c>
       <c r="E137">
-        <v>82.43187797916693</v>
+        <v>77.07888350123847</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>27.932237481365</v>
+        <v>65.3334551438079</v>
       </c>
       <c r="B138">
-        <v>-8.143451372280836</v>
+        <v>57.61093375025293</v>
       </c>
       <c r="C138">
-        <v>64.00792633501084</v>
+        <v>73.05597653736287</v>
       </c>
       <c r="D138">
-        <v>-27.24076746952953</v>
+        <v>53.5228778653386</v>
       </c>
       <c r="E138">
-        <v>83.10524243225953</v>
+        <v>77.14403242227719</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>27.99070442404346</v>
+        <v>65.35548280144417</v>
       </c>
       <c r="B139">
-        <v>-8.446917955998842</v>
+        <v>57.60486849917201</v>
       </c>
       <c r="C139">
-        <v>64.42832680408577</v>
+        <v>73.10609710371632</v>
       </c>
       <c r="D139">
-        <v>-27.7358300886781</v>
+        <v>53.50194112670164</v>
       </c>
       <c r="E139">
-        <v>83.71723893676503</v>
+        <v>77.2090244761867</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>27.94649618164428</v>
+        <v>65.37751045908043</v>
       </c>
       <c r="B140">
-        <v>-8.854295818339008</v>
+        <v>57.59890470668128</v>
       </c>
       <c r="C140">
-        <v>64.74728818162757</v>
+        <v>73.15611621147957</v>
       </c>
       <c r="D140">
-        <v>-28.3354583348451</v>
+        <v>53.48115955558819</v>
       </c>
       <c r="E140">
-        <v>84.22845069813366</v>
+        <v>77.27386136257267</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>27.91100219381913</v>
+        <v>65.39953811671668</v>
       </c>
       <c r="B141">
-        <v>-9.254191002493993</v>
+        <v>57.59304128139237</v>
       </c>
       <c r="C141">
-        <v>65.07619539013226</v>
+        <v>73.20603495204099</v>
       </c>
       <c r="D141">
-        <v>-28.92825585998541</v>
+        <v>53.46053148286379</v>
       </c>
       <c r="E141">
-        <v>84.75026024762367</v>
+        <v>77.33854475056958</v>
       </c>
     </row>
   </sheetData>
